--- a/pythons/new_neurons/logs/64bits_20220609_gpu/64bits_20220609_gpu.xlsx
+++ b/pythons/new_neurons/logs/64bits_20220609_gpu/64bits_20220609_gpu.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaut\OneDrive - Heriot-Watt University\HIOF_Master\Master_Thesis\NewLSTM\Codes\tf_implementations\pythons\new_neurons\logs\64bits_20220608_gpu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaut\OneDrive - Heriot-Watt University\HIOF_Master\Master_Thesis\NewLSTM\Codes\tf_implementations\pythons\new_neurons\logs\64bits_20220609_gpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B85A4E1-6358-4368-9CF7-4CF629B3B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB6F7E-A548-43BA-A61B-0587218306D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="64bits_20220607_gpu" sheetId="2" r:id="rId1"/>
+    <sheet name="64bits_20220609_gpu" sheetId="2" r:id="rId1"/>
     <sheet name="raw" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1045,7 +1045,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1080,18 +1086,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1108,7 +1102,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chau Thi Thuy Tran" refreshedDate="44723.405273958335" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="264" xr:uid="{0A4CAA46-C7EA-4D8D-BF0E-30A31C9CD13C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D265" sheet="64bits_20220607_gpu"/>
+    <worksheetSource ref="A1:D265" sheet="64bits_20220609_gpu"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="model" numFmtId="0">
@@ -2758,7 +2752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F51CA84-1975-4240-B66A-F9A246A6CB2C}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F51CA84-1975-4240-B66A-F9A246A6CB2C}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -2927,14 +2921,14 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -2943,7 +2937,54 @@
     </format>
   </formats>
   <conditionalFormats count="4">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="31">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -3037,54 +3078,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="31">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="24"/>
-              <x v="25"/>
-              <x v="26"/>
-              <x v="27"/>
-              <x v="28"/>
-              <x v="29"/>
-              <x v="30"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -3444,7 +3438,7 @@
   <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I34"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,22 +7443,22 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="G3:G33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0.97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G3:G33">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G3:G33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
       <formula>G$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G3:G33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>MIN(G$7:G$37)</formula>
     </cfRule>
   </conditionalFormatting>
